--- a/data/evaluation/evaluation_South_Spring_Radishes.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Radishes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2895.701480404347</v>
+        <v>2895.911667007702</v>
       </c>
       <c r="C4" t="n">
-        <v>20485169.32848364</v>
+        <v>20077711.97169145</v>
       </c>
       <c r="D4" t="n">
-        <v>4526.054499062471</v>
+        <v>4480.81599395595</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1445264442934209</v>
+        <v>0.1615421197913602</v>
       </c>
     </row>
     <row r="5">
